--- a/docs/1 квартал 2024 год.xlsx
+++ b/docs/1 квартал 2024 год.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2719AC-AABC-401E-99EF-CA57EFA3FE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,36 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Регион</t>
+    <t>region</t>
   </si>
   <si>
-    <t>Отрасль</t>
+    <t>branch</t>
   </si>
   <si>
-    <t>Размер выручки</t>
+    <t>revenue</t>
   </si>
   <si>
-    <t>Q1: Выручка</t>
+    <t>q1</t>
   </si>
   <si>
-    <t>Q2: Занятых</t>
+    <t>q2</t>
   </si>
   <si>
-    <t>Q3: Затраты</t>
+    <t>q3</t>
   </si>
   <si>
-    <t>Q4: Кредиты</t>
+    <t>q4</t>
   </si>
   <si>
-    <t>Q5: Разработка новых продуктов</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>q5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,16 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -458,8 +460,8 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
-        <v>3</v>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H2" s="4">
         <v>5</v>
